--- a/biology/Biochimie/Tétrapeptide/Tétrapeptide.xlsx
+++ b/biology/Biochimie/Tétrapeptide/Tétrapeptide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9trapeptide</t>
+          <t>Tétrapeptide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un tétrapeptide est un peptide constitué de quatre résidus d'acide aminé liés par une liaison peptidique. Beaucoup de tétrapeptides sont pharmacologiquement actifs, montrant souvent une affinité et une spécificité pour divers récepteurs dans la signalisation protéine-protéine. Les tétrapeptides présents dans la nature peuvent être linéaires ou cycliques, cyclisés par une quatrième liaison peptidique ou par un autre type de liaison covalente.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9trapeptide</t>
+          <t>Tétrapeptide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La tuftsine (L-thréonyl-L-lysyl-L-prolyl-L-arginine), un peptide principalement lié au fonctionnement du système immunitaire.
 La rigine (glycyl-L-glutaminyl-L-prolyl-L-arginine), un tétrapeptide aux fonctions similaires à celle de la tuftsine.
